--- a/Redis/Redis指南.xlsx
+++ b/Redis/Redis指南.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1426B64-BA51-450C-84C0-621DC0A4900C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,114 +527,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">docker exec -ti {slave container id} redis-cli -h 127.0.0.1 -p {slave 的映射端口} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker exec -ti {master container id} redis-cli -h 127.0.0.1 -p {master 的映射端口} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有key，就证明主从配置成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 编写redis-sentinel的docker-compose.yml </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.编写sentinel.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim sentinel.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.复制配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-compose up -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见docker-compose.yml_sentinel_redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改master的ip地址和端口。因为有 3 台 Sentinel 所以可以设置成 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master的账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp sentinel.conf sentinel1.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp sentinel.conf sentinel2.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp sentinel.conf sentinel3.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时应该有如下几个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 进入sentinel容器中查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -ti {sentinel container id} redis-cli -h 127.0.0.1 -p {sentinel port}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel slaves mymaster</t>
+  </si>
+  <si>
+    <t>需要将protected-mode设置未no,否则将不能发现其他sentinel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看sentinel log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">例： docker exec -ti ce572b4aa23d redis-cli -h 127.0.0.1 -p 26379 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel master mymaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">例： docker exec -ti ce572b4aa23d redis-cli -h 127.0.0.1 -p 6380 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">docker exec -ti {slave container id} redis-cli -h 127.0.0.1 -p {slave 的映射端口} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">docker exec -ti {master container id} redis-cli -h 127.0.0.1 -p {master 的映射端口} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果有key，就证明主从配置成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5. 编写redis-sentinel的docker-compose.yml </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.编写sentinel.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vim sentinel.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.复制配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker-compose up -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见docker-compose.yml_sentinel_redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改master的ip地址和端口。因为有 3 台 Sentinel 所以可以设置成 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master的账号密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp sentinel.conf sentinel1.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp sentinel.conf sentinel2.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp sentinel.conf sentinel3.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此时应该有如下几个文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 进入sentinel容器中查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker exec -ti {sentinel container id} redis-cli -h 127.0.0.1 -p {sentinel port}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel slaves mymaster</t>
-  </si>
-  <si>
-    <t>sentinel master mymaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要将protected-mode设置未no,否则将不能发现其他sentinel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看sentinel log</t>
+    <t>参考对应的Redis版本下的sentinel.conf文件。保持结构一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,7 +744,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -773,7 +780,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DC7329-B9C5-43EE-942B-E41FD5B7B5EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DC7329-B9C5-43EE-942B-E41FD5B7B5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +824,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2FB9-9D3C-4066-B6FF-4ADE41711FD2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2FB9-9D3C-4066-B6FF-4ADE41711FD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,7 +868,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +981,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1116,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1280,7 @@
         <xdr:cNvPr id="5" name="文本框 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1362,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DAC578D-875B-4858-9ABA-143CF89D3483}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DAC578D-875B-4858-9ABA-143CF89D3483}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1897,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0D05E9-6D44-4DB7-B76C-D1D938DC3D3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0D05E9-6D44-4DB7-B76C-D1D938DC3D3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1957,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7442475-F4B4-4980-9771-3A8BB27847B7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7442475-F4B4-4980-9771-3A8BB27847B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +2001,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89E28CC-1EE4-4227-B852-870D755DD73C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89E28CC-1EE4-4227-B852-870D755DD73C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2045,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96EFA72-2FC3-4D41-A3F8-DAD01B036ABD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96EFA72-2FC3-4D41-A3F8-DAD01B036ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,14 +2082,14 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>46590</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>180817</xdr:rowOff>
+      <xdr:rowOff>171292</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293E0B62-F00F-4FC4-A5A1-D72B059E0603}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293E0B62-F00F-4FC4-A5A1-D72B059E0603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2128,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03F779B-125B-4732-8FDF-443EDC9F63A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03F779B-125B-4732-8FDF-443EDC9F63A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2645,7 @@
         <xdr:cNvPr id="10" name="文本框 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F26B8DF-ECFA-4FDC-B2D6-42722D6C2E8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F26B8DF-ECFA-4FDC-B2D6-42722D6C2E8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6375,13 +6382,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>399142</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>47586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6389,7 +6396,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88475E9-B98E-43AD-B8F8-BFBDFE9C046F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88475E9-B98E-43AD-B8F8-BFBDFE9C046F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6419,13 +6426,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>122095</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>123651</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6433,7 +6440,7 @@
         <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7546E753-2132-4C5D-AF6E-AC07BE066485}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7546E753-2132-4C5D-AF6E-AC07BE066485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6463,13 +6470,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>417</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>685473</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>28257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6477,7 +6484,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CBB7FA-367B-429A-A701-8B3843CCA78D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CBB7FA-367B-429A-A701-8B3843CCA78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6507,13 +6514,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342602</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>28480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6521,7 +6528,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90ACA8C-AC59-4DF8-A59B-28421C779CC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90ACA8C-AC59-4DF8-A59B-28421C779CC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6551,13 +6558,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>422</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>264952</xdr:colOff>
-      <xdr:row>459</xdr:row>
+      <xdr:row>474</xdr:row>
       <xdr:rowOff>37277</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6565,7 +6572,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B6CC8A-480E-4F9F-894D-88F4F00BDC77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B6CC8A-480E-4F9F-894D-88F4F00BDC77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6614,7 +6621,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D425C119-6B52-41B0-B536-F196F42288BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D425C119-6B52-41B0-B536-F196F42288BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6658,7 +6665,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031E2F4-6166-4D6A-A07D-79016C0E574D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031E2F4-6166-4D6A-A07D-79016C0E574D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6702,7 +6709,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA60C2D-7623-4FB3-8B30-C46E10F2EA2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA60C2D-7623-4FB3-8B30-C46E10F2EA2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6746,7 +6753,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401227F2-9F94-4A04-8BEA-CB1E5F3CB530}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401227F2-9F94-4A04-8BEA-CB1E5F3CB530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6790,7 +6797,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E905993F-F949-499B-A4AF-FD592376930C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E905993F-F949-499B-A4AF-FD592376930C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6834,7 +6841,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82A88EB-6432-4213-B155-7AAFE8EAE7A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82A88EB-6432-4213-B155-7AAFE8EAE7A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6883,7 +6890,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D08AD-B188-4D54-983E-6ED288C757DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D08AD-B188-4D54-983E-6ED288C757DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7174,126 +7181,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -7301,7 +7308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -7309,7 +7316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -7317,7 +7324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -7325,17 +7332,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -7349,21 +7356,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -7376,116 +7383,116 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -7499,223 +7506,228 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46861DE7-AE6C-41AB-8380-8AA1FF6FF263}">
-  <dimension ref="A1:P422"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="N398" sqref="N398"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="16:16">
       <c r="P40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="E139" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="221" spans="9:9">
+      <c r="I221" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="241" spans="9:9">
+      <c r="I241" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" spans="1:7" ht="15" customHeight="1"/>
+    <row r="390" spans="1:7" ht="15" customHeight="1"/>
+    <row r="391" spans="1:7" ht="15" customHeight="1"/>
+    <row r="392" spans="1:7" ht="15" customHeight="1"/>
+    <row r="393" spans="1:7" ht="15" customHeight="1">
+      <c r="A393" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J159" t="s">
+      <c r="G393" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="15" customHeight="1">
+      <c r="A394" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="15" customHeight="1">
+      <c r="A395" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="15" customHeight="1">
+      <c r="A400" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416" t="s">
+        <v>123</v>
+      </c>
+      <c r="H416" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I221" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I241" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>105</v>
-      </c>
-      <c r="G378" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>120</v>
-      </c>
-      <c r="H401" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D2F75571-DBD2-4B5C-BAF6-735D7540A00C}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -7724,81 +7736,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -7811,36 +7823,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -7848,12 +7860,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7861,27 +7873,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -7894,16 +7906,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>